--- a/Time Table July 2018.xlsx
+++ b/Time Table July 2018.xlsx
@@ -15381,6 +15381,89 @@
           <a:r>
             <a:rPr lang="th-TH" sz="1000" baseline="0"/>
             <a:t>คุยกับแม่</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>293915</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>478971</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>423455</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="256" name="สี่เหลี่ยมผืนผ้า 255"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6270172" y="14728371"/>
+          <a:ext cx="2177142" cy="423455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>หาโรงแรมแถวๆ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> สถานี </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Nipponbashi </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>ราคาคืนละ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>500-1000 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>บาท</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>

--- a/Time Table July 2018.xlsx
+++ b/Time Table July 2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Time</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>July - Aug</t>
+  </si>
+  <si>
+    <t>วันหยุด</t>
   </si>
 </sst>
 </file>
@@ -15763,8 +15766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17258,7 +17261,9 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="I47" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -17454,7 +17459,9 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="I53" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>

--- a/Time Table July 2018.xlsx
+++ b/Time Table July 2018.xlsx
@@ -438,17 +438,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19880,6 +19880,555 @@
             <a:t>หาจังหวะจ่ายค่าเครื่องบิน แลกตังค์ ถามคนที่เคยไป</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>185056</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>446316</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>359226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="364" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17449799" y="7184571"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect neutral</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>217713</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>478973</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>435427</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="371" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17482456" y="8153400"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect neutral</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>315684</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>576944</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>65312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="372" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17580427" y="11800114"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect neutral</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>391884</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>653144</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>424540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="373" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17656627" y="12605656"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect neutral</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>283030</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>216626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>261256</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="374" name="สี่เหลี่ยมผืนผ้า 373"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13563601" y="5572397"/>
+          <a:ext cx="1578428" cy="1383573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>คุยกับพ่อ เรื่องแผนการไปเที่ยวญี่ปุ่น</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>และแผนการเงิน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> เพื่อความชัวร์</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>87088</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>348341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="375" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16099971" y="5834743"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>fap in iPhone</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>119742</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>43545</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>315684</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="376" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16056428" y="6248400"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>fap in iPhone</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76202</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>337456</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="377" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16089085" y="6716486"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>fap in iPhone</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -22667,8 +23216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22677,17 +23226,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11">
         <v>4500</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="11" t="s">
         <v>59</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -22697,56 +23246,56 @@
       <c r="L1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="14">
+      <c r="O1" s="11">
         <v>20</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="14">
+      <c r="S1" s="11">
         <v>70</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="14">
+      <c r="W1" s="11">
         <v>65</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="14">
+      <c r="AA1" s="11">
         <v>70</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AB1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AC1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AD1" s="14">
+      <c r="AD1" s="11">
         <f>((S1+W1)*O1) + AA1</f>
         <v>2770</v>
       </c>
@@ -22767,85 +23316,85 @@
       <c r="H2" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="11">
         <v>4</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="14">
+      <c r="S2" s="11">
         <v>50</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="14">
+      <c r="W2" s="11">
         <v>46</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14" t="s">
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14" t="s">
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AD2" s="14">
+      <c r="AD2" s="11">
         <f>((S2+W2)*O2)</f>
         <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14">
         <v>0.2</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13">
         <f>ROUND(F9*(20/100),0)</f>
         <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14">
         <v>0.2</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13">
         <f>ROUND(F9*(20/100),0)</f>
         <v>269</v>
       </c>
@@ -22854,43 +23403,43 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14">
         <v>0.2</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13">
         <f>ROUND(F9*(20/100),0)</f>
         <v>269</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16">
+      <c r="K5" s="13"/>
+      <c r="L5" s="13">
         <f>SUM(H3:H5)+H7</f>
         <v>1076</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="13">
         <f>L5</f>
         <v>1076</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="16" t="s">
         <v>81</v>
       </c>
       <c r="S5">
         <f>P5*6</f>
         <v>6456</v>
       </c>
-      <c r="T5" s="19" t="s">
+      <c r="T5" s="16" t="s">
         <v>82</v>
       </c>
     </row>
@@ -22901,7 +23450,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="15">
+      <c r="F6" s="12">
         <v>0.15</v>
       </c>
       <c r="G6" s="5"/>
@@ -22911,17 +23460,17 @@
       </c>
     </row>
     <row r="7" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14">
         <v>0.2</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
         <f>ROUND(F9*(20/100),0)</f>
         <v>269</v>
       </c>
@@ -22936,7 +23485,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="15">
+      <c r="F8" s="12">
         <v>0.05</v>
       </c>
       <c r="G8" s="5"/>
@@ -22954,18 +23503,18 @@
       </c>
     </row>
     <row r="9" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11">
         <f>H1-H9</f>
         <v>1346</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
         <f>AD1+AD2</f>
         <v>3154</v>
       </c>
@@ -22985,32 +23534,32 @@
       <c r="A11" s="1">
         <v>43282</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="19"/>
     </row>
     <row r="12" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -23299,32 +23848,32 @@
       <c r="A21" s="1">
         <v>43282</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="19"/>
     </row>
     <row r="22" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -23613,32 +24162,32 @@
       <c r="A31" s="1">
         <v>43282</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="19"/>
     </row>
     <row r="32" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -23927,32 +24476,32 @@
       <c r="A41" s="1">
         <v>43282</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="13"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="19"/>
     </row>
     <row r="42" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -24243,32 +24792,32 @@
       <c r="A51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="13"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="19"/>
     </row>
     <row r="52" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -25523,32 +26072,32 @@
       <c r="A1" s="1">
         <v>43282</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="13"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="19"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/Time Table July 2018.xlsx
+++ b/Time Table July 2018.xlsx
@@ -15434,15 +15434,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>293915</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>315687</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>576942</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>403441</xdr:rowOff>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>414327</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15451,7 +15451,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2950029" y="7141030"/>
+          <a:off x="2971801" y="6705601"/>
           <a:ext cx="947056" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15513,15 +15513,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>435430</xdr:rowOff>
+      <xdr:colOff>631372</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>555171</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>392556</xdr:rowOff>
+      <xdr:colOff>642257</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>669</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15530,7 +15530,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3200400" y="6683830"/>
+          <a:off x="3287486" y="7184572"/>
           <a:ext cx="674914" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15564,83 +15564,6 @@
             </a:rPr>
             <a:t>คอมใหญ่</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ฝาก</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>185057</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>424542</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>657017</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>381668</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="299" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3505200" y="7565571"/>
-          <a:ext cx="471960" cy="403440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="77933C"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>คอมใหญ่</a:t>
-          </a:r>
-          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -20160,15 +20083,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>283030</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>216626</xdr:rowOff>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>118654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>261256</xdr:rowOff>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20177,7 +20100,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13563601" y="5572397"/>
+          <a:off x="13585372" y="5920740"/>
           <a:ext cx="1578428" cy="1383573"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20429,6 +20352,79 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>250371</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>413657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>391885</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>391884</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="378" name="สี่เหลี่ยมผืนผ้า 377"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6890657" y="8001000"/>
+          <a:ext cx="2797628" cy="424541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>คุยกับพ่อ เรื่องแผนการไปเที่ยวญี่ปุ่น</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>และแผนการเงิน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> เพื่อความชัวร์</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -23217,7 +23213,7 @@
   <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table July 2018.xlsx
+++ b/Time Table July 2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
   <si>
     <t>Time</t>
   </si>
@@ -265,6 +265,18 @@
   <si>
     <t>in yer pocket on your own following this</t>
   </si>
+  <si>
+    <t>บ้านใหม่ที่มีคุณภาพ สวยงาม พื้นแข็งแรง เย็นสบาย</t>
+  </si>
+  <si>
+    <t>กูว่าสิ่งศักดิ์สิทธิ์ เป็นสิ่งควบคุมลูกค้าที่มาใช้บริการ สินค้า อันสุจริตน่ะ</t>
+  </si>
+  <si>
+    <t>บริษัทเกมส์ยังต้องมี faith เลย เพราะต้องคอยมีคนเติมเกมส์อย่างสมัครใจ แต่ก็ลุ้นนะ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ใส่เพิ่มไปในบทสวดด้วย</t>
+  </si>
 </sst>
 </file>
 
@@ -1688,8 +1700,8 @@
       <xdr:rowOff>41365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>566057</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>620486</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>18505</xdr:rowOff>
     </xdr:to>
@@ -1701,11 +1713,14 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15823474" y="7182394"/>
-          <a:ext cx="679269" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:ext cx="1397726" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1731,6 +1746,14 @@
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
             <a:t>สวดมนต์</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เพื่อบ้านใหม่และเที่ยวญี่ปุ่นเท่านั้น</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1796,120 +1819,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>37013</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>274319</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9799</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="สี่เหลี่ยมผืนผ้า 65"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15531737" y="7624356"/>
-          <a:ext cx="679268" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>29392</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>15239</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>2178</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="สี่เหลี่ยมผืนผ้า 66"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14608628" y="8063049"/>
-          <a:ext cx="679268" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>187235</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -2597,14 +2506,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>446314</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>478971</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>29393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>210095</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>242751</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>2179</xdr:rowOff>
     </xdr:to>
@@ -2615,7 +2524,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15054943" y="7616736"/>
+          <a:off x="14423571" y="7616736"/>
           <a:ext cx="427809" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2890,63 +2799,6 @@
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
             <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>585651</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>42454</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>562792</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19594</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="สี่เหลี่ยมผืนผ้า 84"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16522337" y="7183483"/>
-          <a:ext cx="641169" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ตัดเล็บ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15209,71 +15061,6 @@
             <a:rPr lang="th-TH" sz="1000"/>
             <a:t>ลู่วิ่ง</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>239485</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>435429</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>402772</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="293" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6879771" y="7609115"/>
-          <a:ext cx="4180115" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ไปเล่นเกมส์ที่มหาลัย</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15856,63 +15643,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>511627</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>3264</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>481148</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>422364</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="305" name="สี่เหลี่ยมผืนผ้า 304"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5823856" y="7590607"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>580208</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -15962,63 +15692,6 @@
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
             <a:t>กินข้าวแ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>414746</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>391886</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>434341</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="310" name="สี่เหลี่ยมผืนผ้า 309"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13031289" y="7602583"/>
-          <a:ext cx="641168" cy="419101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19811,24 +19484,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>185056</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>43542</xdr:rowOff>
+      <xdr:colOff>315684</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>446316</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>359226</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="364" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17449799" y="7184571"/>
+      <xdr:colOff>576944</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>65312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="372" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17580427" y="11800114"/>
           <a:ext cx="1251860" cy="315684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19879,24 +19552,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>217713</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
+      <xdr:colOff>391884</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>478973</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>435427</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="371" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17482456" y="8153400"/>
+      <xdr:colOff>653144</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>424540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="373" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17656627" y="12605656"/>
           <a:ext cx="1251860" cy="315684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19944,27 +19617,100 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>173083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="374" name="สี่เหลี่ยมผืนผ้า 373"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13585372" y="5082540"/>
+          <a:ext cx="1578428" cy="654231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>คุยกับพ่อ เรื่องแผนการไปเที่ยวญี่ปุ่น</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>และแผนการเงิน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> เพื่อความชัวร์</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>315684</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>195943</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>576944</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>65312</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="372" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17580427" y="11800114"/>
+      <xdr:colOff>87088</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>348341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="375" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16099971" y="5834743"/>
           <a:ext cx="1251860" cy="315684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19996,7 +19742,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>erect neutral</a:t>
+            <a:t>fap in iPhone</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -20014,25 +19760,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>119742</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>391884</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>108856</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>653144</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>424540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="373" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17656627" y="12605656"/>
+      <xdr:colOff>43545</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>315684</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="376" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16056428" y="6248400"/>
           <a:ext cx="1251860" cy="315684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20064,7 +19810,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>erect neutral</a:t>
+            <a:t>fap in iPhone</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -20080,100 +19826,27 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>118654</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>555171</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>163284</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="374" name="สี่เหลี่ยมผืนผ้า 373"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13585372" y="5920740"/>
-          <a:ext cx="1578428" cy="1383573"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>คุยกับพ่อ เรื่องแผนการไปเที่ยวญี่ปุ่น</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>และแผนการเงิน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> เพื่อความชัวร์</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>163285</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>87088</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>348341</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="375" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16099971" y="5834743"/>
+      <xdr:colOff>76202</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>337456</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="377" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16089085" y="6716486"/>
           <a:ext cx="1251860" cy="315684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20221,27 +19894,157 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>250371</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>413657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>391885</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>391884</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="378" name="สี่เหลี่ยมผืนผ้า 377"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6890657" y="8001000"/>
+          <a:ext cx="2797628" cy="424541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>คุยกับพ่อ เรื่องแผนการไปเที่ยวญี่ปุ่น</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>และแผนการเงิน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> เพื่อความชัวร์</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>559526</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>440872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="379" name="สี่เหลี่ยมผืนผ้า 378"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11832772" y="7609115"/>
+          <a:ext cx="679268" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ลู่วิ่ง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>119742</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>43545</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>315684</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="376" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16056428" y="6248400"/>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>217713</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>141516</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>402769</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="380" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6857999" y="7674428"/>
           <a:ext cx="1251860" cy="315684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20273,7 +20076,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>fap in iPhone</a:t>
+            <a:t>erect subl</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -20291,25 +20094,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>76202</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>337456</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="377" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16089085" y="6716486"/>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>206828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>642259</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="381" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10678885" y="8240485"/>
           <a:ext cx="1251860" cy="315684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20341,7 +20144,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>fap in iPhone</a:t>
+            <a:t>erect dom</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -20359,26 +20162,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>250371</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>256902</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>413657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>391885</xdr:colOff>
+      <xdr:rowOff>74022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>391884</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="378" name="สี่เหลี่ยมผืนผ้า 377"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6890657" y="8001000"/>
-          <a:ext cx="2797628" cy="424541"/>
+      <xdr:rowOff>51162</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="382" name="สี่เหลี่ยมผืนผ้า 381"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14865531" y="7661365"/>
+          <a:ext cx="1397726" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20410,7 +20213,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>คุยกับพ่อ เรื่องแผนการไปเที่ยวญี่ปุ่น</a:t>
+            <a:t>สวดมนต์</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
@@ -20418,11 +20221,155 @@
           </a:r>
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>และแผนการเงิน</a:t>
+            <a:t>เพื่อบ้านใหม่และเที่ยวญี่ปุ่นเท่านั้น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>71845</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>18505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="383" name="สี่เหลี่ยมผืนผ้า 382"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14680474" y="8075022"/>
+          <a:ext cx="1397726" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เพื่อบ้านใหม่และเที่ยวญี่ปุ่นเท่านั้น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>416920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="364" name="สี่เหลี่ยมผืนผ้า 363"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14020800" y="7141028"/>
+          <a:ext cx="1828800" cy="416921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>จ่ายค่าเครื่องบิน</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> เพื่อความชัวร์</a:t>
+            <a:t> วันที่ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>9 - 12 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>เลย</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>บอก พ่อ ด้วย</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
@@ -23212,8 +23159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23750,7 +23697,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -23778,8 +23725,14 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
+      <c r="AA17" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
@@ -23807,8 +23760,11 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
+      <c r="AA18" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
@@ -23838,9 +23794,12 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
+      <c r="AA19" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:30" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43282</v>
       </c>
@@ -23871,7 +23830,7 @@
       <c r="X21" s="18"/>
       <c r="Y21" s="19"/>
     </row>
-    <row r="22" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
@@ -23948,7 +23907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
@@ -23977,7 +23936,7 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
@@ -24006,7 +23965,7 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -24035,7 +23994,7 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
@@ -24064,7 +24023,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
@@ -24093,7 +24052,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>21</v>
       </c>
@@ -24122,7 +24081,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>22</v>
       </c>
@@ -24153,8 +24112,8 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:30" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43282</v>
       </c>
@@ -24185,7 +24144,7 @@
       <c r="X31" s="18"/>
       <c r="Y31" s="19"/>
     </row>
-    <row r="32" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>

--- a/Time Table July 2018.xlsx
+++ b/Time Table July 2018.xlsx
@@ -19896,16 +19896,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>250371</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>370114</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>413657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>391885</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>391884</xdr:rowOff>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>511628</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>446312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19914,7 +19914,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6890657" y="8001000"/>
+          <a:off x="5682343" y="7609114"/>
           <a:ext cx="2797628" cy="424541"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20026,16 +20026,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>217713</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>522513</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>446313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>446316</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>87085</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>141516</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>402769</xdr:rowOff>
+      <xdr:rowOff>315683</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20044,7 +20044,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6857999" y="7674428"/>
+          <a:off x="13139056" y="7587342"/>
           <a:ext cx="1251860" cy="315684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20094,16 +20094,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>206828</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>642259</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76198</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>283027</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>206830</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>402769</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20112,7 +20112,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10678885" y="8240485"/>
+          <a:off x="16219713" y="7674428"/>
           <a:ext cx="1251860" cy="315684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20372,6 +20372,210 @@
             <a:t>บอก พ่อ ด้วย</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>544284</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>468087</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>326569</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="371" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7184570" y="8044542"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect dom</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>587827</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>435428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>511630</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>304798</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="384" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9884227" y="8022771"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect dom</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>511627</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>112122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>435430</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>443046</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="385" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12464141" y="8145779"/>
+          <a:ext cx="1251860" cy="330924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect subl</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -23160,7 +23364,7 @@
   <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table July 2018.xlsx
+++ b/Time Table July 2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
   <si>
     <t>Time</t>
   </si>
@@ -12747,158 +12747,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>293914</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>413658</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>283028</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>390798</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="254" name="สี่เหลี่ยมผืนผ้า 253"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12910457" y="14249401"/>
-          <a:ext cx="1981200" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>จ่ายเงินค่าเทอม</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> สหกิจ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>47000</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>489856</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9798</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="256" name="สี่เหลี่ยมผืนผ้า 255"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10929257" y="16546286"/>
-          <a:ext cx="2177142" cy="423455"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>หาโรงแรมแถวๆ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> สถานี </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Nipponbashi </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t>ราคาคืนละ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>500-1000 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t>บาท</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>58</xdr:row>
@@ -14349,66 +14197,6 @@
               <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>261258</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>10888</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>250372</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>434342</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="281" name="สี่เหลี่ยมผืนผ้า 280"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12877801" y="14739259"/>
-          <a:ext cx="1981200" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ติดตามเรื่องเงินอุดหนุน</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -19897,15 +19685,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>370114</xdr:colOff>
+      <xdr:colOff>653143</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>21771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>511628</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>130629</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>446312</xdr:rowOff>
+      <xdr:rowOff>438692</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19914,8 +19702,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5682343" y="7609114"/>
-          <a:ext cx="2797628" cy="424541"/>
+          <a:off x="5965372" y="7609114"/>
+          <a:ext cx="2797628" cy="416921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20576,6 +20364,533 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="386" name="สี่เหลี่ยมผืนผ้า 385"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="387" name="สี่เหลี่ยมผืนผ้า 386"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="388" name="สี่เหลี่ยมผืนผ้า 387"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="389" name="สี่เหลี่ยมผืนผ้า 388"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="390" name="สี่เหลี่ยมผืนผ้า 389"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="391" name="สี่เหลี่ยมผืนผ้า 390"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>434341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="254" name="สี่เหลี่ยมผืนผ้า 253"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9100456" y="14292944"/>
+          <a:ext cx="1981200" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ให้แม่จ่ายเงินค่าเทอม</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> สหกิจ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>47000</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>511630</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>500744</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>423457</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="281" name="สี่เหลี่ยมผืนผ้า 280"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144001" y="14728374"/>
+          <a:ext cx="1981200" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ติดตามเรื่องเงินอุดหนุน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ให้แม่ไปรับเอกสาร แล้วเราเซ้น</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -23363,8 +23678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA21" sqref="AA21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23947,7 +24262,9 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>

--- a/Time Table July 2018.xlsx
+++ b/Time Table July 2018.xlsx
@@ -2564,15 +2564,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>234043</xdr:colOff>
+      <xdr:colOff>255815</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>631372</xdr:colOff>
+      <xdr:colOff>653144</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>429986</xdr:rowOff>
+      <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2581,7 +2581,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13514614" y="3581400"/>
+          <a:off x="13536386" y="8033657"/>
           <a:ext cx="397329" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20168,15 +20168,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>544284</xdr:colOff>
+      <xdr:colOff>32655</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>10885</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>468087</xdr:colOff>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>620487</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>326569</xdr:rowOff>
+      <xdr:rowOff>348341</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20185,7 +20185,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7184570" y="8044542"/>
+          <a:off x="6672941" y="8066314"/>
           <a:ext cx="1251860" cy="315684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20235,26 +20235,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>489855</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>587827</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>435428</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>511630</xdr:colOff>
+      <xdr:colOff>413658</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>304798</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="384" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9884227" y="8022771"/>
-          <a:ext cx="1251860" cy="315684"/>
+      <xdr:rowOff>355960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="385" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458198" y="8058693"/>
+          <a:ext cx="1251860" cy="330924"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20285,7 +20285,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>erect dom</a:t>
+            <a:t>erect sub</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -20301,28 +20301,634 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="386" name="สี่เหลี่ยมผืนผ้า 385"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="387" name="สี่เหลี่ยมผืนผ้า 386"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="388" name="สี่เหลี่ยมผืนผ้า 387"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="389" name="สี่เหลี่ยมผืนผ้า 388"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="390" name="สี่เหลี่ยมผืนผ้า 389"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="391" name="สี่เหลี่ยมผืนผ้า 390"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>434341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="254" name="สี่เหลี่ยมผืนผ้า 253"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9100456" y="14292944"/>
+          <a:ext cx="1981200" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ให้แม่จ่ายเงินค่าเทอม</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> สหกิจ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>47000</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>511630</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>500744</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>423457</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="281" name="สี่เหลี่ยมผืนผ้า 280"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144001" y="14728374"/>
+          <a:ext cx="1981200" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ติดตามเรื่องเงินอุดหนุน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ให้แม่ไปรับเอกสาร แล้วเราเซ้น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>402772</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>414326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="392" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3058886" y="10276115"/>
+          <a:ext cx="947056" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>เอากลับมา</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>511627</xdr:colOff>
+      <xdr:colOff>359226</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>112122</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>435430</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>443046</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="385" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12464141" y="8145779"/>
-          <a:ext cx="1251860" cy="330924"/>
+      <xdr:colOff>283029</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>21770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="394" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12311740" y="8186057"/>
+          <a:ext cx="1251860" cy="315684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20353,7 +20959,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>erect subl</a:t>
+            <a:t>erect dom</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -20369,528 +20975,69 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="386" name="สี่เหลี่ยมผืนผ้า 385"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686300" y="8033657"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="387" name="สี่เหลี่ยมผืนผ้า 386"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686300" y="8033657"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="388" name="สี่เหลี่ยมผืนผ้า 387"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686300" y="8033657"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="389" name="สี่เหลี่ยมผืนผ้า 388"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686300" y="8033657"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="390" name="สี่เหลี่ยมผืนผ้า 389"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686300" y="8033657"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="391" name="สี่เหลี่ยมผืนผ้า 390"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686300" y="8033657"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>468085</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>10887</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>434341</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="254" name="สี่เหลี่ยมผืนผ้า 253"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9100456" y="14292944"/>
-          <a:ext cx="1981200" cy="423454"/>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>664030</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>359226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="395" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16676913" y="10308771"/>
+          <a:ext cx="1251860" cy="315684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ให้แม่จ่ายเงินค่าเทอม</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> สหกิจ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>47000</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>511630</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>3</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>500744</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>423457</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="281" name="สี่เหลี่ยมผืนผ้า 280"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9144001" y="14728374"/>
-          <a:ext cx="1981200" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ติดตามเรื่องเงินอุดหนุน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ให้แม่ไปรับเอกสาร แล้วเราเซ้น</a:t>
-          </a:r>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect neutral</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -23678,8 +23825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table July 2018.xlsx
+++ b/Time Table July 2018.xlsx
@@ -15564,26 +15564,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>587829</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>424542</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>381668</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="312" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3243943" y="10689771"/>
-          <a:ext cx="674914" cy="403440"/>
+      <xdr:colOff>185057</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>402771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657017</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>359896</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="316" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505200" y="12006942"/>
+          <a:ext cx="471960" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15616,6 +15616,66 @@
             </a:rPr>
             <a:t>คอมใหญ่</a:t>
           </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>587829</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="317" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3243943" y="5845628"/>
+          <a:ext cx="674914" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr>
@@ -15641,24 +15701,2350 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>293915</xdr:colOff>
+      <xdr:colOff>664028</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>424543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>381668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="318" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3320142" y="10243457"/>
+          <a:ext cx="674914" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ฝาก</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>239486</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>435430</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>388622</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="319" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6879772" y="12058108"/>
+          <a:ext cx="4180115" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ไปเล่นเกมส์ที่มหาลัย</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>511628</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>435429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>481149</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>408214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="320" name="สี่เหลี่ยมผืนผ้า 319"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5823857" y="12039600"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>424544</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>388622</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="321" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6868886" y="16521251"/>
+          <a:ext cx="4180115" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ไปเล่นเกมส์ที่มหาลัย</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>391886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>437606</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>364671</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="322" name="สี่เหลี่ยมผืนผ้า 321"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5780314" y="16459200"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>7624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>359230</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>388624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="323" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6803572" y="20984395"/>
+          <a:ext cx="4180115" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ไปเล่นเกมส์ที่มหาลัย</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>524692</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="324" name="สี่เหลี่ยมผืนผ้า 323"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="21031200"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>391886</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>83823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>587830</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>18508</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="325" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7032172" y="25523737"/>
+          <a:ext cx="4180115" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ไปเล่นเกมส์ที่มหาลัย</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>631371</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600892</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>440872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="326" name="สี่เหลี่ยมผืนผ้า 325"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="25461686"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>587829</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="327" name="สี่เหลี่ยมผืนผ้า 326"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12758057" y="9818914"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>130628</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="328" name="สี่เหลี่ยมผืนผ้า 327"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12747171" y="10308771"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>195942</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>642257</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>424544</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="329" name="สี่เหลี่ยมผืนผ้า 328"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12812485" y="10744200"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>174170</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>620485</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="330" name="สี่เหลี่ยมผืนผ้า 329"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12790713" y="11190514"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>185055</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>435428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>631370</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>408214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="331" name="สี่เหลี่ยมผืนผ้า 330"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801598" y="11593285"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>478972</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="332" name="สี่เหลี่ยมผืนผ้า 331"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12649200" y="14358257"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>468086</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>92528</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="333" name="สี่เหลี่ยมผืนผ้า 332"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12638314" y="14848114"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>87085</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="334" name="สี่เหลี่ยมผืนผ้า 333"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12703628" y="15283543"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>65313</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>511628</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="335" name="สี่เหลี่ยมผืนผ้า 334"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12681856" y="15729857"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76198</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>522513</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="336" name="สี่เหลี่ยมผืนผ้า 335"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12692741" y="16132628"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>65316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>555173</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="337" name="สี่เหลี่ยมผืนผ้า 336"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12725401" y="18810516"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>108859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>544287</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="338" name="สี่เหลี่ยมผืนผ้า 337"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12714515" y="19300373"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>97973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>70759</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="339" name="สี่เหลี่ยมผืนผ้า 338"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12779829" y="19735802"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>97973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>587829</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>70759</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="340" name="สี่เหลี่ยมผืนผ้า 339"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12758057" y="20182116"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="341" name="สี่เหลี่ยมผืนผ้า 340"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12768942" y="20584887"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>429987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="342" name="สี่เหลี่ยมผืนผ้า 341"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12627429" y="23219230"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>446315</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="343" name="สี่เหลี่ยมผืนผ้า 342"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12616543" y="23709087"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>43545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>511629</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>16330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="344" name="สี่เหลี่ยมผืนผ้า 343"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12681857" y="24144516"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>43542</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>16330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="345" name="สี่เหลี่ยมผืนผ้า 344"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12660085" y="24590830"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>54427</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>500742</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>419101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="346" name="สี่เหลี่ยมผืนผ้า 345"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12670970" y="24993601"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>642258</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>40280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>174173</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>421280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="347" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6618515" y="20570737"/>
+          <a:ext cx="4180115" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ไปเล่นเกมส์ที่มหาลัย</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>437606</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>429987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="348" name="สี่เหลี่ยมผืนผ้า 347"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5780314" y="20541344"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>29394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>185058</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>410394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="349" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="23237737"/>
+          <a:ext cx="4180115" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ไปเล่นเกมส์ที่มหาลัย</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>566056</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>535577</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>429986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="350" name="สี่เหลี่ยมผืนผ้า 349"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5878285" y="23219229"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>62051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>239487</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>443051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="351" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6683829" y="21485137"/>
+          <a:ext cx="4180115" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ไปเล่นเกมส์ที่มหาลัย</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>620485</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590006</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="352" name="สี่เหลี่ยมผืนผ้า 351"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5932714" y="21466629"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>576942</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>381670</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="314" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2950029" y="11582401"/>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>559046</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>403440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="353" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3407229" y="20530457"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3875</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>414325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="354" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3516086" y="21433971"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>370114</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>178046</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>414326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="355" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3690257" y="25450800"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>413657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>620485</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>370782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="357" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3265714" y="15142028"/>
+          <a:ext cx="674914" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ฝาก</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>413658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>598713</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>370784</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="358" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="16034658"/>
           <a:ext cx="947056" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15720,24 +18106,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>413658</xdr:rowOff>
+      <xdr:colOff>566057</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>402772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>555171</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>370784</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="315" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3200400" y="11125201"/>
+      <xdr:colOff>576942</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>359898</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="359" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3222171" y="15577458"/>
           <a:ext cx="674914" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15796,25 +18182,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>185057</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>402771</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>657017</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>359896</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="316" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3505200" y="12006942"/>
-          <a:ext cx="471960" cy="403440"/>
+      <xdr:colOff>21770</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>413657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>32656</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>370783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="360" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3341913" y="14695714"/>
+          <a:ext cx="674914" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15847,6 +18233,22 @@
             </a:rPr>
             <a:t>คอมใหญ่</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ฝาก</a:t>
+          </a:r>
           <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
@@ -15856,24 +18258,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>587829</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>43542</xdr:rowOff>
+      <xdr:colOff>413657</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>668</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="317" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3243943" y="5845628"/>
+      <xdr:colOff>424542</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>403440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="361" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3069771" y="18745200"/>
           <a:ext cx="674914" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15932,24 +18334,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>664028</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>424543</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>10885</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>381668</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="318" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3320142" y="10243457"/>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>391885</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>425211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="362" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3037114" y="19659600"/>
           <a:ext cx="674914" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16007,2351 +18409,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>239486</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>7622</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>435430</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>388622</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="319" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6879772" y="12058108"/>
-          <a:ext cx="4180115" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ไปเล่นเกมส์ที่มหาลัย</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>511628</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>435429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>481149</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>408214</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="320" name="สี่เหลี่ยมผืนผ้า 319"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5823857" y="12039600"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>7622</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>424544</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>388622</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="321" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6868886" y="16521251"/>
-          <a:ext cx="4180115" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ไปเล่นเกมส์ที่มหาลัย</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>468085</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>391886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>437606</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>364671</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="322" name="สี่เหลี่ยมผืนผ้า 321"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5780314" y="16459200"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>7624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>359230</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>388624</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="323" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6803572" y="20984395"/>
-          <a:ext cx="4180115" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ไปเล่นเกมส์ที่มหาลัย</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>555171</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>524692</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="324" name="สี่เหลี่ยมผืนผ้า 323"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5867400" y="21031200"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>391886</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>83823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>587830</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>18508</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="325" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7032172" y="25523737"/>
-          <a:ext cx="4180115" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ไปเล่นเกมส์ที่มหาลัย</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>631371</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600892</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>440872</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="326" name="สี่เหลี่ยมผืนผ้า 325"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5943600" y="25461686"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>587829</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="327" name="สี่เหลี่ยมผืนผ้า 326"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12758057" y="9818914"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>130628</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>43542</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>576943</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>16328</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="328" name="สี่เหลี่ยมผืนผ้า 327"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12747171" y="10308771"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>195942</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>642257</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>5443</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="329" name="สี่เหลี่ยมผืนผ้า 328"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12812485" y="10744200"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>174170</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>620485</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>5443</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="330" name="สี่เหลี่ยมผืนผ้า 329"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12790713" y="11190514"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>185055</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>435428</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>631370</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>408214</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="331" name="สี่เหลี่ยมผืนผ้า 330"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12801598" y="11593285"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>32657</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>478972</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>48986</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="332" name="สี่เหลี่ยมผืนผ้า 331"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12649200" y="14358257"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>468086</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>92528</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="333" name="สี่เหลี่ยมผืนผ้า 332"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12638314" y="14848114"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>87085</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="334" name="สี่เหลี่ยมผืนผ้า 333"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12703628" y="15283543"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>65313</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>511628</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="335" name="สี่เหลี่ยมผืนผ้า 334"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12681856" y="15729857"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76198</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>522513</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="336" name="สี่เหลี่ยมผืนผ้า 335"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12692741" y="16132628"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>108858</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>65316</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>555173</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38102</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="337" name="สี่เหลี่ยมผืนผ้า 336"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12725401" y="18810516"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>97972</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>108859</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>544287</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>81644</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="338" name="สี่เหลี่ยมผืนผ้า 337"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12714515" y="19300373"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>97973</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>70759</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="339" name="สี่เหลี่ยมผืนผ้า 338"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12779829" y="19735802"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>97973</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>587829</xdr:colOff>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>70759</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="340" name="สี่เหลี่ยมผืนผ้า 339"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12758057" y="20182116"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>27216</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="341" name="สี่เหลี่ยมผืนผ้า 340"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12768942" y="20584887"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>10887</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>429987</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="342" name="สี่เหลี่ยมผืนผ้า 341"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12627429" y="23219230"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>446315</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>27216</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="343" name="สี่เหลี่ยมผืนผ้า 342"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12616543" y="23709087"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>65314</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>43545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>511629</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>16330</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="344" name="สี่เหลี่ยมผืนผ้า 343"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12681857" y="24144516"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>43542</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>43544</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>16330</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="345" name="สี่เหลี่ยมผืนผ้า 344"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12660085" y="24590830"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>54427</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>500742</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>419101</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="346" name="สี่เหลี่ยมผืนผ้า 345"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12670970" y="24993601"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>642258</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>40280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>174173</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>421280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="347" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6618515" y="20570737"/>
-          <a:ext cx="4180115" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ไปเล่นเกมส์ที่มหาลัย</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>468085</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>10887</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>437606</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>429987</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="348" name="สี่เหลี่ยมผืนผ้า 347"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5780314" y="20541344"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>653143</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>29394</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>185058</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>410394</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="349" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6629400" y="23237737"/>
-          <a:ext cx="4180115" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ไปเล่นเกมส์ที่มหาลัย</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>566056</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>535577</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>429986</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="350" name="สี่เหลี่ยมผืนผ้า 349"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5878285" y="23219229"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>62051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>239487</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>443051</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="351" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6683829" y="21485137"/>
-          <a:ext cx="4180115" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ไปเล่นเกมส์ที่มหาลัย</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>620485</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590006</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>16329</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="352" name="สี่เหลี่ยมผืนผ้า 351"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5932714" y="21466629"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>87086</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>559046</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>403440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="353" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3407229" y="20530457"/>
-          <a:ext cx="471960" cy="403440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="77933C"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>คอมใหญ่</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>195943</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>10885</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3875</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>414325</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="354" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3516086" y="21433971"/>
-          <a:ext cx="471960" cy="403440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="77933C"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>คอมใหญ่</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>370114</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>178046</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>414326</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="355" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3690257" y="25450800"/>
-          <a:ext cx="471960" cy="403440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="77933C"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>คอมใหญ่</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>642257</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>391885</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>653142</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>349011</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="356" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3298371" y="14227628"/>
-          <a:ext cx="674914" cy="403440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="77933C"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>คอมใหญ่</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ฝาก</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>413657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>620485</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>370782</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="357" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3265714" y="15142028"/>
-          <a:ext cx="674914" cy="403440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="77933C"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>คอมใหญ่</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ฝาก</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>315686</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>413658</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>598713</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>370784</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="358" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2971800" y="16034658"/>
+      <xdr:rowOff>11556</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="363" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2754086" y="20138573"/>
           <a:ext cx="947056" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18413,24 +18489,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>566057</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>402772</xdr:rowOff>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>576942</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>359898</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="359" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3222171" y="15577458"/>
+      <xdr:colOff>468084</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>425212</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="365" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3113313" y="19213286"/>
           <a:ext cx="674914" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18488,25 +18564,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>566057</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>391885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>21770</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>413657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>32656</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>370783</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="360" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3341913" y="14695714"/>
+      <xdr:colOff>576942</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>349011</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="366" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3222171" y="23600228"/>
           <a:ext cx="674914" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18565,24 +18641,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>413657</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>413657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>424542</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>403440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="361" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3069771" y="18745200"/>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>370782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="367" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3189514" y="24514628"/>
           <a:ext cx="674914" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18641,100 +18717,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
+      <xdr:colOff>250372</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>391885</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>425211</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="362" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3037114" y="19659600"/>
-          <a:ext cx="674914" cy="403440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="77933C"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>คอมใหญ่</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ฝาก</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>97972</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>11556</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="363" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2754086" y="20138573"/>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>403441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="368" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2906486" y="24993601"/>
           <a:ext cx="947056" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18796,24 +18796,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>413657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>468084</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>425212</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="365" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3113313" y="19213286"/>
+      <xdr:colOff>620484</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>370783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="369" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3265713" y="24068314"/>
           <a:ext cx="674914" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18869,34 +18869,127 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457198</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>391885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="370" name="สี่เหลี่ยมผืนผ้า 369"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8327572" y="5485310"/>
+          <a:ext cx="2090055" cy="2047604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เวลาพักก็ใส่ ปฎิทิน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> ให้ครบ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>6 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>เดือนด้วย ที่วางแผนไว้น่ะ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>เสร็จแล้วก็วางแนเรื่องไปเที่ยว</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>หาจังหวะจ่ายค่าเครื่องบิน แลกตังค์ ถามคนที่เคยไป</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>566057</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>391885</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>576942</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>349011</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="366" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3222171" y="23600228"/>
-          <a:ext cx="674914" cy="403440"/>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>315684</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>576944</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>65312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="372" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17580427" y="11800114"/>
+          <a:ext cx="1251860" cy="315684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="77933C"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
         <a:ln w="25560">
           <a:solidFill>
@@ -18915,14 +19008,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000">
+            <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>คอมใหญ่</a:t>
-          </a:r>
+            <a:t>erect neutral</a:t>
+          </a:r>
+          <a:endParaRPr/>
         </a:p>
         <a:p>
           <a:pPr>
@@ -18930,15 +19024,6 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ฝาก</a:t>
-          </a:r>
           <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
@@ -18947,32 +19032,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>413657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>544285</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>370782</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="367" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3189514" y="24514628"/>
-          <a:ext cx="674914" cy="403440"/>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>391884</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>653144</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>424540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="373" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17656627" y="12605656"/>
+          <a:ext cx="1251860" cy="315684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="77933C"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
         <a:ln w="25560">
           <a:solidFill>
@@ -18991,14 +19076,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000">
+            <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>คอมใหญ่</a:t>
-          </a:r>
+            <a:t>erect neutral</a:t>
+          </a:r>
+          <a:endParaRPr/>
         </a:p>
         <a:p>
           <a:pPr>
@@ -19006,42 +19092,1456 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000">
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>173083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="374" name="สี่เหลี่ยมผืนผ้า 373"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13585372" y="5082540"/>
+          <a:ext cx="1578428" cy="654231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>คุยกับพ่อ เรื่องแผนการไปเที่ยวญี่ปุ่น</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>และแผนการเงิน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> เพื่อความชัวร์</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>87088</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>348341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="375" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16099971" y="5834743"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>ฝาก</a:t>
+            <a:t>fap in iPhone</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>119742</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>43545</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>315684</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="376" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16056428" y="6248400"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>fap in iPhone</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76202</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>337456</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="377" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16089085" y="6716486"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>fap in iPhone</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>130629</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>438692</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="378" name="สี่เหลี่ยมผืนผ้า 377"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5965372" y="7609114"/>
+          <a:ext cx="2797628" cy="416921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>คุยกับพ่อ เรื่องแผนการไปเที่ยวญี่ปุ่น</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>และแผนการเงิน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> เพื่อความชัวร์</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>559526</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>440872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="379" name="สี่เหลี่ยมผืนผ้า 378"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11832772" y="7609115"/>
+          <a:ext cx="679268" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ลู่วิ่ง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>522513</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>446313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>446316</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>315683</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="380" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13139056" y="7587342"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect subl</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>283027</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>206830</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>402769</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="381" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16219713" y="7674428"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect dom</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>256902</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>74022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>51162</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="382" name="สี่เหลี่ยมผืนผ้า 381"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14865531" y="7661365"/>
+          <a:ext cx="1397726" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เพื่อบ้านใหม่และเที่ยวญี่ปุ่นเท่านั้น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>71845</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>18505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="383" name="สี่เหลี่ยมผืนผ้า 382"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14680474" y="8075022"/>
+          <a:ext cx="1397726" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เพื่อบ้านใหม่และเที่ยวญี่ปุ่นเท่านั้น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>416920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="364" name="สี่เหลี่ยมผืนผ้า 363"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14020800" y="7141028"/>
+          <a:ext cx="1828800" cy="416921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>จ่ายค่าเครื่องบิน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> วันที่ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>9 - 12 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>เลย</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>บอก พ่อ ด้วย</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32655</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>620487</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>348341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="371" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6672941" y="8066314"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect dom</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>489855</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>413658</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>355960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="385" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458198" y="8058693"/>
+          <a:ext cx="1251860" cy="330924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect sub</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="386" name="สี่เหลี่ยมผืนผ้า 385"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="387" name="สี่เหลี่ยมผืนผ้า 386"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="388" name="สี่เหลี่ยมผืนผ้า 387"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="389" name="สี่เหลี่ยมผืนผ้า 388"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="390" name="สี่เหลี่ยมผืนผ้า 389"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="391" name="สี่เหลี่ยมผืนผ้า 390"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>434341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="254" name="สี่เหลี่ยมผืนผ้า 253"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9100456" y="14292944"/>
+          <a:ext cx="1981200" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ให้แม่จ่ายเงินค่าเทอม</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> สหกิจ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>47000</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>511630</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>500744</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>423457</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="281" name="สี่เหลี่ยมผืนผ้า 280"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144001" y="14728374"/>
+          <a:ext cx="1981200" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ติดตามเรื่องเงินอุดหนุน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ให้แม่ไปรับเอกสาร แล้วเราเซ้น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>250372</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>403441</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="368" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2906486" y="24993601"/>
+      <xdr:colOff>402772</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>414326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="392" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3058886" y="10276115"/>
           <a:ext cx="947056" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19102,26 +20602,162 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>413657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>359226</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>283029</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>21770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="394" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12311740" y="8186057"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect dom</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>664030</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>359226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="395" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16676913" y="10308771"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect neutral</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>620484</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>370783</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="369" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3265713" y="24068314"/>
-          <a:ext cx="674914" cy="403440"/>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>424542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>36532</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>381668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="396" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3548743" y="12475028"/>
+          <a:ext cx="471960" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19154,143 +20790,34 @@
             </a:rPr>
             <a:t>คอมใหญ่</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ฝาก</a:t>
-          </a:r>
           <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>359229</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>129539</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457198</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>391885</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="370" name="สี่เหลี่ยมผืนผ้า 369"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8327572" y="5485310"/>
-          <a:ext cx="2090055" cy="2047604"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เวลาพักก็ใส่ ปฎิทิน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> ให้ครบ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>6 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t>เดือนด้วย ที่วางแผนไว้น่ะ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t>เสร็จแล้วก็วางแนเรื่องไปเที่ยว</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t>หาจังหวะจ่ายค่าเครื่องบิน แลกตังค์ ถามคนที่เคยไป</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152402</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>443049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>315684</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>195943</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>576944</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>65312</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="372" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17580427" y="11800114"/>
-          <a:ext cx="1251860" cy="315684"/>
+      <xdr:colOff>827315</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>413656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="397" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16089088" y="10708278"/>
+          <a:ext cx="2002970" cy="416921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19309,21 +20836,18 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>erect neutral</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>เล่นเกมส์โหดๆ ระบายอารมณ์</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -19339,26 +20863,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>239488</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>18507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>391884</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>108856</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>653144</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>424540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="373" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17656627" y="12605656"/>
-          <a:ext cx="1251860" cy="315684"/>
+      <xdr:colOff>914401</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>435428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="398" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16176174" y="11176364"/>
+          <a:ext cx="2002970" cy="416921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19377,21 +20901,18 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>erect neutral</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>เล่นเกมส์โหดๆ ระบายอารมณ์</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -19405,101 +20926,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>173083</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>555171</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="374" name="สี่เหลี่ยมผืนผ้า 373"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13585372" y="5082540"/>
-          <a:ext cx="1578428" cy="654231"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>คุยกับพ่อ เรื่องแผนการไปเที่ยวญี่ปุ่น</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>และแผนการเงิน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> เพื่อความชัวร์</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>163285</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>87088</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>348341</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="375" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16099971" y="5834743"/>
-          <a:ext cx="1251860" cy="315684"/>
+      <xdr:colOff>337460</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>421278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>21773</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>391885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="399" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16274146" y="11579135"/>
+          <a:ext cx="2002970" cy="416921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19518,21 +20966,18 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>fap in iPhone</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>เล่นเกมส์โหดๆ ระบายอารมณ์</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -19548,26 +20993,206 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>438693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>526388</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>403439</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="400" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3374571" y="10703922"/>
+          <a:ext cx="471960" cy="411060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>119742</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>591702</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>425211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="401" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3439885" y="11172008"/>
+          <a:ext cx="471960" cy="411060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>416923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>624359</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>381669</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="402" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3472542" y="11574780"/>
+          <a:ext cx="471960" cy="411060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>119742</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>43545</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>315684</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="376" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16056428" y="6248400"/>
-          <a:ext cx="1251860" cy="315684"/>
+      <xdr:colOff>435430</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>119743</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="403" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16372116" y="14812192"/>
+          <a:ext cx="2002970" cy="416921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19586,21 +21211,18 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>fap in iPhone</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>เล่นอสุราให้จุติ</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -19617,25 +21239,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>76202</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>337456</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="377" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16089085" y="6716486"/>
-          <a:ext cx="1251860" cy="315684"/>
+      <xdr:colOff>511630</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>443050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>413656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="405" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16448316" y="15171421"/>
+          <a:ext cx="2002970" cy="416921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19654,21 +21276,18 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>fap in iPhone</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>เล่นอสุราให้จุติ</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -19682,158 +21301,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>653143</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>130629</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>438692</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="378" name="สี่เหลี่ยมผืนผ้า 377"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5965372" y="7609114"/>
-          <a:ext cx="2797628" cy="416921"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>คุยกับพ่อ เรื่องแผนการไปเที่ยวญี่ปุ่น</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>และแผนการเงิน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> เพื่อความชัวร์</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>559526</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>440872</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="379" name="สี่เหลี่ยมผืนผ้า 378"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11832772" y="7609115"/>
-          <a:ext cx="679268" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ลู่วิ่ง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>522513</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>446313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>446316</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>315683</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="380" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13139056" y="7587342"/>
-          <a:ext cx="1251860" cy="315684"/>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>416922</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="406" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16393887" y="15628621"/>
+          <a:ext cx="2002970" cy="409301"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19852,21 +21341,18 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>erect subl</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>เล่นอสุราให้จุติ</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -19883,25 +21369,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>283027</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>87085</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>206830</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>402769</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="381" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16219713" y="7674428"/>
-          <a:ext cx="1251860" cy="315684"/>
+      <xdr:colOff>457203</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>432163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>141516</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>402770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="408" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16393889" y="14267906"/>
+          <a:ext cx="2002970" cy="416921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19920,21 +21406,18 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>erect dom</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>เล่นเกมส์โหดๆ ระบายอารมณ์</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -19948,28 +21431,88 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>256902</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>74022</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>326571</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>51162</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="382" name="สี่เหลี่ยมผืนผ้า 381"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14865531" y="7661365"/>
-          <a:ext cx="1397726" cy="423454"/>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>446313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>403439</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="409" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3516086" y="14282056"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>413656</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>402770</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>434341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="356" name="สี่เหลี่ยมผืนผ้า 355"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11038113" y="16524516"/>
+          <a:ext cx="1981200" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20001,165 +21544,8 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เพื่อบ้านใหม่และเที่ยวญี่ปุ่นเท่านั้น</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>71845</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>41365</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>18505</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="383" name="สี่เหลี่ยมผืนผ้า 382"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14680474" y="8075022"/>
-          <a:ext cx="1397726" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เพื่อบ้านใหม่และเที่ยวญี่ปุ่นเท่านั้น</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>576943</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>416920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="364" name="สี่เหลี่ยมผืนผ้า 363"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14020800" y="7141028"/>
-          <a:ext cx="1828800" cy="416921"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>จ่ายค่าเครื่องบิน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> วันที่ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>9 - 12 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t>เลย</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t>บอก พ่อ ด้วย</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
+            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -20168,25 +21554,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>32655</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>620487</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>348341</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="371" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6672941" y="8066314"/>
-          <a:ext cx="1251860" cy="315684"/>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>443051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>631373</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>377737</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="404" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7075715" y="12493537"/>
+          <a:ext cx="4180115" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20205,21 +21591,18 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>erect dom</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>เล่นเกมส์</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -20235,26 +21618,266 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>489855</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>25036</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>413658</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>355960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="385" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8458198" y="8058693"/>
-          <a:ext cx="1251860" cy="330924"/>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>206829</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>14761</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>403439</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="407" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3526972" y="16513628"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>402771</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>391885</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>434341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="410" name="สี่เหลี่ยมผืนผ้า 409"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11027228" y="20541344"/>
+          <a:ext cx="1981200" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>435431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>412570</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="411" name="สี่เหลี่ยมผืนผ้า 410"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11168743" y="21412202"/>
+          <a:ext cx="1981200" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>359230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>336370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="412" name="สี่เหลี่ยมผืนผ้า 411"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11321143" y="25352830"/>
+          <a:ext cx="1981200" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>391886</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>94708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>587830</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>29394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="413" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7032172" y="17054651"/>
+          <a:ext cx="4180115" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20273,21 +21896,18 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>erect sub</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>เล่นเกมส์เล็กๆ</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -20301,634 +21921,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="386" name="สี่เหลี่ยมผืนผ้า 385"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686300" y="8033657"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="387" name="สี่เหลี่ยมผืนผ้า 386"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686300" y="8033657"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="388" name="สี่เหลี่ยมผืนผ้า 387"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686300" y="8033657"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="389" name="สี่เหลี่ยมผืนผ้า 388"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686300" y="8033657"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="390" name="สี่เหลี่ยมผืนผ้า 389"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686300" y="8033657"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="391" name="สี่เหลี่ยมผืนผ้า 390"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686300" y="8033657"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>468085</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>10887</xdr:rowOff>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>413657</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>29393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>434341</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="254" name="สี่เหลี่ยมผืนผ้า 253"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9100456" y="14292944"/>
-          <a:ext cx="1981200" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ให้แม่จ่ายเงินค่าเทอม</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> สหกิจ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>47000</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>511630</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>3</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>500744</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>423457</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="281" name="สี่เหลี่ยมผืนผ้า 280"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9144001" y="14728374"/>
-          <a:ext cx="1981200" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ติดตามเรื่องเงินอุดหนุน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ให้แม่ไปรับเอกสาร แล้วเราเซ้น</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>402772</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>414326</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="392" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3058886" y="10276115"/>
-          <a:ext cx="947056" cy="403440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="77933C"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>คอมใหญ่</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>เอากลับมา</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>359226</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>283029</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>21770</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="394" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12311740" y="8186057"/>
-          <a:ext cx="1251860" cy="315684"/>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>410393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="414" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7053943" y="25915622"/>
+          <a:ext cx="4180115" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20947,21 +21961,18 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>erect dom</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>เล่นเกมส์เล็กๆ</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -20975,69 +21986,241 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>43542</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>664030</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>359226</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="395" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16676913" y="10308771"/>
-          <a:ext cx="1251860" cy="315684"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>500741</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>43545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>489855</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>20685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="415" name="สี่เหลี่ยมผืนผ้า 414"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11125198" y="17003488"/>
+          <a:ext cx="1981200" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>erect neutral</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>402774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>587828</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>379914</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="416" name="สี่เหลี่ยมผืนผ้า 415"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11223171" y="20933231"/>
+          <a:ext cx="1981200" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>10888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>141513</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>434342</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="417" name="สี่เหลี่ยมผืนผ้า 416"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10776856" y="23219231"/>
+          <a:ext cx="1981200" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>43544</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>445226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="418" name="สี่เหลี่ยมผืนผ้า 417"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11342915" y="25908001"/>
+          <a:ext cx="1981200" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -23825,8 +25008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S60" sqref="S60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table July 2018.xlsx
+++ b/Time Table July 2018.xlsx
@@ -17951,24 +17951,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>413657</xdr:rowOff>
+      <xdr:colOff>413657</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>620485</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>370782</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="357" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3265714" y="15142028"/>
+      <xdr:colOff>424542</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>403440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="361" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3069771" y="18745200"/>
           <a:ext cx="674914" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18027,24 +18027,100 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>315686</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>413658</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>598713</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>370784</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="358" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2971800" y="16034658"/>
+      <xdr:colOff>391885</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>425211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="362" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3037114" y="19659600"/>
+          <a:ext cx="674914" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ฝาก</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>11556</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="363" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2754086" y="20138573"/>
           <a:ext cx="947056" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18106,24 +18182,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>566057</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>402772</xdr:rowOff>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>576942</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>359898</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="359" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3222171" y="15577458"/>
+      <xdr:colOff>468084</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>425212</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="365" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3113313" y="19213286"/>
           <a:ext cx="674914" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18181,25 +18257,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>566057</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>391885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>21770</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>413657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>32656</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>370783</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="360" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3341913" y="14695714"/>
+      <xdr:colOff>576942</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>349011</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="366" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3222171" y="23600228"/>
           <a:ext cx="674914" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18258,24 +18334,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>413657</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>413657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>424542</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>403440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="361" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3069771" y="18745200"/>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>370782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="367" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3189514" y="24514628"/>
           <a:ext cx="674914" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18334,100 +18410,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
+      <xdr:colOff>250372</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>391885</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>425211</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="362" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3037114" y="19659600"/>
-          <a:ext cx="674914" cy="403440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="77933C"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>คอมใหญ่</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ฝาก</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>97972</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>11556</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="363" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2754086" y="20138573"/>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>403441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="368" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2906486" y="24993601"/>
           <a:ext cx="947056" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18489,24 +18489,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>413657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>468084</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>425212</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="365" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3113313" y="19213286"/>
+      <xdr:colOff>620484</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>370783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="369" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3265713" y="24068314"/>
           <a:ext cx="674914" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18562,34 +18562,127 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457198</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>391885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="370" name="สี่เหลี่ยมผืนผ้า 369"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8327572" y="5485310"/>
+          <a:ext cx="2090055" cy="2047604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เวลาพักก็ใส่ ปฎิทิน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> ให้ครบ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>6 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>เดือนด้วย ที่วางแผนไว้น่ะ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>เสร็จแล้วก็วางแนเรื่องไปเที่ยว</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>หาจังหวะจ่ายค่าเครื่องบิน แลกตังค์ ถามคนที่เคยไป</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>566057</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>391885</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>576942</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>349011</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="366" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3222171" y="23600228"/>
-          <a:ext cx="674914" cy="403440"/>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>315684</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>576944</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>65312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="372" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17580427" y="11800114"/>
+          <a:ext cx="1251860" cy="315684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="77933C"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
         <a:ln w="25560">
           <a:solidFill>
@@ -18608,14 +18701,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000">
+            <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>คอมใหญ่</a:t>
-          </a:r>
+            <a:t>erect neutral</a:t>
+          </a:r>
+          <a:endParaRPr/>
         </a:p>
         <a:p>
           <a:pPr>
@@ -18623,15 +18717,6 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ฝาก</a:t>
-          </a:r>
           <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
@@ -18640,32 +18725,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>413657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>544285</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>370782</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="367" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3189514" y="24514628"/>
-          <a:ext cx="674914" cy="403440"/>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>391884</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>653144</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>424540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="373" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17656627" y="12605656"/>
+          <a:ext cx="1251860" cy="315684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="77933C"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
         <a:ln w="25560">
           <a:solidFill>
@@ -18684,14 +18769,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000">
+            <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>คอมใหญ่</a:t>
-          </a:r>
+            <a:t>erect neutral</a:t>
+          </a:r>
+          <a:endParaRPr/>
         </a:p>
         <a:p>
           <a:pPr>
@@ -18699,42 +18785,1456 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000">
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>173083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="374" name="สี่เหลี่ยมผืนผ้า 373"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13585372" y="5082540"/>
+          <a:ext cx="1578428" cy="654231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>คุยกับพ่อ เรื่องแผนการไปเที่ยวญี่ปุ่น</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>และแผนการเงิน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> เพื่อความชัวร์</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>87088</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>348341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="375" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16099971" y="5834743"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>ฝาก</a:t>
+            <a:t>fap in iPhone</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>119742</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>43545</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>315684</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="376" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16056428" y="6248400"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>fap in iPhone</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76202</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>337456</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="377" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16089085" y="6716486"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>fap in iPhone</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>130629</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>438692</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="378" name="สี่เหลี่ยมผืนผ้า 377"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5965372" y="7609114"/>
+          <a:ext cx="2797628" cy="416921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>คุยกับพ่อ เรื่องแผนการไปเที่ยวญี่ปุ่น</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>และแผนการเงิน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> เพื่อความชัวร์</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>559526</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>440872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="379" name="สี่เหลี่ยมผืนผ้า 378"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11832772" y="7609115"/>
+          <a:ext cx="679268" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ลู่วิ่ง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>522513</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>446313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>446316</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>315683</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="380" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13139056" y="7587342"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect subl</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>283027</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>206830</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>402769</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="381" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16219713" y="7674428"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect dom</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>256902</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>74022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>51162</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="382" name="สี่เหลี่ยมผืนผ้า 381"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14865531" y="7661365"/>
+          <a:ext cx="1397726" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เพื่อบ้านใหม่และเที่ยวญี่ปุ่นเท่านั้น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>71845</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>18505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="383" name="สี่เหลี่ยมผืนผ้า 382"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14680474" y="8075022"/>
+          <a:ext cx="1397726" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เพื่อบ้านใหม่และเที่ยวญี่ปุ่นเท่านั้น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>416920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="364" name="สี่เหลี่ยมผืนผ้า 363"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14020800" y="7141028"/>
+          <a:ext cx="1828800" cy="416921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>จ่ายค่าเครื่องบิน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> วันที่ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>9 - 12 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>เลย</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>บอก พ่อ ด้วย</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32655</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>620487</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>348341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="371" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6672941" y="8066314"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect dom</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>489855</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>413658</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>355960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="385" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458198" y="8058693"/>
+          <a:ext cx="1251860" cy="330924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect sub</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="386" name="สี่เหลี่ยมผืนผ้า 385"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="387" name="สี่เหลี่ยมผืนผ้า 386"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="388" name="สี่เหลี่ยมผืนผ้า 387"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="389" name="สี่เหลี่ยมผืนผ้า 388"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="390" name="สี่เหลี่ยมผืนผ้า 389"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="391" name="สี่เหลี่ยมผืนผ้า 390"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="8033657"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>434341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="254" name="สี่เหลี่ยมผืนผ้า 253"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9100456" y="14292944"/>
+          <a:ext cx="1981200" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ให้แม่จ่ายเงินค่าเทอม</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> สหกิจ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>47000</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>511630</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>500744</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>423457</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="281" name="สี่เหลี่ยมผืนผ้า 280"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144001" y="14728374"/>
+          <a:ext cx="1981200" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ติดตามเรื่องเงินอุดหนุน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ให้แม่ไปรับเอกสาร แล้วเราเซ้น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>250372</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>403441</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="368" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2906486" y="24993601"/>
+      <xdr:colOff>402772</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>414326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="392" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3058886" y="10276115"/>
           <a:ext cx="947056" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18795,26 +20295,162 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>413657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>359226</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>283029</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>21770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="394" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12311740" y="8186057"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect dom</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>664030</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>359226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="395" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16676913" y="10308771"/>
+          <a:ext cx="1251860" cy="315684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>erect neutral</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>620484</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>370783</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="369" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3265713" y="24068314"/>
-          <a:ext cx="674914" cy="403440"/>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>424542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>36532</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>381668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="396" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3548743" y="12475028"/>
+          <a:ext cx="471960" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18847,143 +20483,34 @@
             </a:rPr>
             <a:t>คอมใหญ่</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ฝาก</a:t>
-          </a:r>
           <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>359229</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>129539</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457198</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>391885</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="370" name="สี่เหลี่ยมผืนผ้า 369"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8327572" y="5485310"/>
-          <a:ext cx="2090055" cy="2047604"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เวลาพักก็ใส่ ปฎิทิน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> ให้ครบ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>6 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t>เดือนด้วย ที่วางแผนไว้น่ะ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t>เสร็จแล้วก็วางแนเรื่องไปเที่ยว</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t>หาจังหวะจ่ายค่าเครื่องบิน แลกตังค์ ถามคนที่เคยไป</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152402</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>443049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>315684</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>195943</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>576944</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>65312</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="372" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17580427" y="11800114"/>
-          <a:ext cx="1251860" cy="315684"/>
+      <xdr:colOff>827315</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>413656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="397" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16089088" y="10708278"/>
+          <a:ext cx="2002970" cy="416921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19002,21 +20529,18 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>erect neutral</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>เล่นเกมส์โหดๆ ระบายอารมณ์</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -19032,26 +20556,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>239488</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>18507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>391884</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>108856</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>653144</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>424540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="373" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17656627" y="12605656"/>
-          <a:ext cx="1251860" cy="315684"/>
+      <xdr:colOff>914401</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>435428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="398" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16176174" y="11176364"/>
+          <a:ext cx="2002970" cy="416921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19070,21 +20594,18 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>erect neutral</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>เล่นเกมส์โหดๆ ระบายอารมณ์</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -19098,101 +20619,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>173083</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>555171</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="374" name="สี่เหลี่ยมผืนผ้า 373"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13585372" y="5082540"/>
-          <a:ext cx="1578428" cy="654231"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>คุยกับพ่อ เรื่องแผนการไปเที่ยวญี่ปุ่น</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>และแผนการเงิน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> เพื่อความชัวร์</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>163285</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>87088</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>348341</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="375" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16099971" y="5834743"/>
-          <a:ext cx="1251860" cy="315684"/>
+      <xdr:colOff>337460</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>421278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>21773</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>391885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="399" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16274146" y="11579135"/>
+          <a:ext cx="2002970" cy="416921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19211,21 +20659,18 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>fap in iPhone</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>เล่นเกมส์โหดๆ ระบายอารมณ์</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -19241,26 +20686,206 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>438693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>526388</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>403439</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="400" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3374571" y="10703922"/>
+          <a:ext cx="471960" cy="411060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>119742</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>591702</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>425211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="401" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3439885" y="11172008"/>
+          <a:ext cx="471960" cy="411060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>416923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>624359</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>381669</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="402" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3472542" y="11574780"/>
+          <a:ext cx="471960" cy="411060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>119742</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>43545</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>315684</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="376" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16056428" y="6248400"/>
-          <a:ext cx="1251860" cy="315684"/>
+      <xdr:colOff>435430</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>119743</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="403" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16372116" y="14812192"/>
+          <a:ext cx="2002970" cy="416921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19279,21 +20904,18 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>fap in iPhone</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>เล่นอสุราให้จุติ</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -19310,25 +20932,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>76202</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>337456</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="377" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16089085" y="6716486"/>
-          <a:ext cx="1251860" cy="315684"/>
+      <xdr:colOff>511630</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>443050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>413656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="405" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16448316" y="15171421"/>
+          <a:ext cx="2002970" cy="416921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19347,21 +20969,18 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>fap in iPhone</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>เล่นอสุราให้จุติ</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -19375,158 +20994,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>653143</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>130629</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>438692</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="378" name="สี่เหลี่ยมผืนผ้า 377"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5965372" y="7609114"/>
-          <a:ext cx="2797628" cy="416921"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>คุยกับพ่อ เรื่องแผนการไปเที่ยวญี่ปุ่น</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>และแผนการเงิน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> เพื่อความชัวร์</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>559526</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>440872</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="379" name="สี่เหลี่ยมผืนผ้า 378"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11832772" y="7609115"/>
-          <a:ext cx="679268" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ลู่วิ่ง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>522513</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>446313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>446316</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>315683</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="380" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13139056" y="7587342"/>
-          <a:ext cx="1251860" cy="315684"/>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>416922</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="406" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16393887" y="15628621"/>
+          <a:ext cx="2002970" cy="409301"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19545,21 +21034,18 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>erect subl</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>เล่นอสุราให้จุติ</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -19576,25 +21062,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>283027</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>87085</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>206830</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>402769</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="381" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16219713" y="7674428"/>
-          <a:ext cx="1251860" cy="315684"/>
+      <xdr:colOff>457203</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>432163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>141516</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>402770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="408" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16393889" y="14267906"/>
+          <a:ext cx="2002970" cy="416921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19613,21 +21099,18 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>erect dom</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>เล่นเกมส์โหดๆ ระบายอารมณ์</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -19641,28 +21124,88 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>256902</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>74022</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>326571</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>51162</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="382" name="สี่เหลี่ยมผืนผ้า 381"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14865531" y="7661365"/>
-          <a:ext cx="1397726" cy="423454"/>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>446313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>403439</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="409" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3516086" y="14282056"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>413656</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>402770</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>434341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="356" name="สี่เหลี่ยมผืนผ้า 355"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11038113" y="16524516"/>
+          <a:ext cx="1981200" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19694,165 +21237,8 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เพื่อบ้านใหม่และเที่ยวญี่ปุ่นเท่านั้น</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>71845</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>41365</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>18505</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="383" name="สี่เหลี่ยมผืนผ้า 382"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14680474" y="8075022"/>
-          <a:ext cx="1397726" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เพื่อบ้านใหม่และเที่ยวญี่ปุ่นเท่านั้น</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>576943</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>416920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="364" name="สี่เหลี่ยมผืนผ้า 363"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14020800" y="7141028"/>
-          <a:ext cx="1828800" cy="416921"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>จ่ายค่าเครื่องบิน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> วันที่ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>9 - 12 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t>เลย</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t>บอก พ่อ ด้วย</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
+            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -19861,25 +21247,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>32655</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>620487</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>348341</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="371" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6672941" y="8066314"/>
-          <a:ext cx="1251860" cy="315684"/>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>443051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>631373</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>377737</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="404" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7075715" y="12493537"/>
+          <a:ext cx="4180115" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19898,21 +21284,18 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>erect dom</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>เล่นเกมส์</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -19928,26 +21311,266 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>489855</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>25036</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>413658</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>355960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="385" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8458198" y="8058693"/>
-          <a:ext cx="1251860" cy="330924"/>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>206829</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>14761</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>403439</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="407" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3526972" y="16513628"/>
+          <a:ext cx="471960" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>402771</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>391885</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>434341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="410" name="สี่เหลี่ยมผืนผ้า 409"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11027228" y="20541344"/>
+          <a:ext cx="1981200" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>435431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>412570</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="411" name="สี่เหลี่ยมผืนผ้า 410"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11168743" y="21412202"/>
+          <a:ext cx="1981200" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>359230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>336370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="412" name="สี่เหลี่ยมผืนผ้า 411"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11321143" y="25352830"/>
+          <a:ext cx="1981200" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>391886</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>94708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>587830</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>29394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="413" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7032172" y="17054651"/>
+          <a:ext cx="4180115" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19966,21 +21589,18 @@
         <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>erect sub</a:t>
-          </a:r>
-          <a:endParaRPr/>
+            <a:t>เล่นเกมส์เล็กๆ</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -19994,417 +21614,92 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="386" name="สี่เหลี่ยมผืนผ้า 385"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686300" y="8033657"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="387" name="สี่เหลี่ยมผืนผ้า 386"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686300" y="8033657"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="388" name="สี่เหลี่ยมผืนผ้า 387"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686300" y="8033657"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="389" name="สี่เหลี่ยมผืนผ้า 388"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686300" y="8033657"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="390" name="สี่เหลี่ยมผืนผ้า 389"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686300" y="8033657"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="391" name="สี่เหลี่ยมผืนผ้า 390"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686300" y="8033657"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>468085</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>10887</xdr:rowOff>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>413657</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>29393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>434341</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="254" name="สี่เหลี่ยมผืนผ้า 253"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9100456" y="14292944"/>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>410393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="414" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7053943" y="25915622"/>
+          <a:ext cx="4180115" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เล่นเกมส์เล็กๆ</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>500741</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>43545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>489855</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>20685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="415" name="สี่เหลี่ยมผืนผ้า 414"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11125198" y="17003488"/>
           <a:ext cx="1981200" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20437,43 +21732,34 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ให้แม่จ่ายเงินค่าเทอม</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
-            <a:t> สหกิจ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>47000</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>511630</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>3</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>500744</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>423457</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="281" name="สี่เหลี่ยมผืนผ้า 280"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9144001" y="14728374"/>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>402774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>587828</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>379914</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="416" name="สี่เหลี่ยมผืนผ้า 415"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11223171" y="20933231"/>
           <a:ext cx="1981200" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20506,16 +21792,197 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ติดตามเรื่องเงินอุดหนุน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ให้แม่ไปรับเอกสาร แล้วเราเซ้น</a:t>
-          </a:r>
+            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>10888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>141513</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>434342</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="417" name="สี่เหลี่ยมผืนผ้า 416"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10776856" y="23219231"/>
+          <a:ext cx="1981200" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>43544</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>445226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="418" name="สี่เหลี่ยมผืนผ้า 417"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11342915" y="25908001"/>
+          <a:ext cx="1981200" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>402771</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="384" name="สี่เหลี่ยมผืนผ้า 383"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13019314" y="24122742"/>
+          <a:ext cx="1534885" cy="1469571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ลงทะเบียนสหกิจออนไลน์</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> ใน </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>regis</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -20523,25 +21990,221 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>206829</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>384264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>14761</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>356630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="393" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3526972" y="14666321"/>
+          <a:ext cx="471960" cy="418680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>438693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>36532</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>411058</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="419" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3548743" y="15167064"/>
+          <a:ext cx="471960" cy="418680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>402772</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>566056</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>414326</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="392" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3058886" y="10276115"/>
+        <xdr:cNvPr id="420" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3211285" y="15631886"/>
+          <a:ext cx="674914" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ฝาก</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>239486</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>522513</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>669</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="421" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="16110858"/>
           <a:ext cx="947056" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20595,1632 +22258,6 @@
             </a:solidFill>
             <a:effectLst/>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>359226</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>283029</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>21770</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="394" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12311740" y="8186057"/>
-          <a:ext cx="1251860" cy="315684"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>erect dom</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>43542</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>664030</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>359226</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="395" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16676913" y="10308771"/>
-          <a:ext cx="1251860" cy="315684"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>erect neutral</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>424542</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>36532</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>381668</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="396" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3548743" y="12475028"/>
-          <a:ext cx="471960" cy="403440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="77933C"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>คอมใหญ่</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>152402</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>443049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>827315</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>413656</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="397" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16089088" y="10708278"/>
-          <a:ext cx="2002970" cy="416921"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>เล่นเกมส์โหดๆ ระบายอารมณ์</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>239488</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>18507</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>914401</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>435428</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="398" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16176174" y="11176364"/>
-          <a:ext cx="2002970" cy="416921"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>เล่นเกมส์โหดๆ ระบายอารมณ์</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>337460</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>421278</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>21773</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>391885</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="399" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16274146" y="11579135"/>
-          <a:ext cx="2002970" cy="416921"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>เล่นเกมส์โหดๆ ระบายอารมณ์</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>438693</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>526388</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>403439</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="400" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3374571" y="10703922"/>
-          <a:ext cx="471960" cy="411060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="77933C"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>คอมใหญ่</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>119742</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>14151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>591702</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>425211</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="401" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3439885" y="11172008"/>
-          <a:ext cx="471960" cy="411060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="77933C"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>คอมใหญ่</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>416923</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>624359</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>381669</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="402" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3472542" y="11574780"/>
-          <a:ext cx="471960" cy="411060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="77933C"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>คอมใหญ่</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>435430</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>83821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>119743</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>54427</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="403" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16372116" y="14812192"/>
-          <a:ext cx="2002970" cy="416921"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>เล่นอสุราให้จุติ</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>511630</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>443050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>195943</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>413656</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="405" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16448316" y="15171421"/>
-          <a:ext cx="2002970" cy="416921"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>เล่นอสุราให้จุติ</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>416922</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="406" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16393887" y="15628621"/>
-          <a:ext cx="2002970" cy="409301"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>เล่นอสุราให้จุติ</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>457203</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>432163</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>141516</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>402770</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="408" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16393889" y="14267906"/>
-          <a:ext cx="2002970" cy="416921"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>เล่นเกมส์โหดๆ ระบายอารมณ์</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>195943</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>446313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3875</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>403439</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="409" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3516086" y="14282056"/>
-          <a:ext cx="471960" cy="403440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="77933C"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>คอมใหญ่</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>413656</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>10887</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>402770</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>434341</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="356" name="สี่เหลี่ยมผืนผ้า 355"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11038113" y="16524516"/>
-          <a:ext cx="1981200" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>435429</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>443051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>631373</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>377737</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="404" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7075715" y="12493537"/>
-          <a:ext cx="4180115" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>เล่นเกมส์</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>206829</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>14761</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>403439</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="407" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3526972" y="16513628"/>
-          <a:ext cx="471960" cy="403440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="77933C"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>คอมใหญ่</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>402771</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>10887</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>391885</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>434341</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="410" name="สี่เหลี่ยมผืนผ้า 409"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11027228" y="20541344"/>
-          <a:ext cx="1981200" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>435431</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>412570</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="411" name="สี่เหลี่ยมผืนผ้า 410"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11168743" y="21412202"/>
-          <a:ext cx="1981200" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>32657</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>359230</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>21772</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>336370</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="412" name="สี่เหลี่ยมผืนผ้า 411"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11321143" y="25352830"/>
-          <a:ext cx="1981200" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>391886</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>94708</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>587830</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>29394</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="413" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7032172" y="17054651"/>
-          <a:ext cx="4180115" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>เล่นเกมส์เล็กๆ</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>413657</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>29393</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>410393</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="414" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7053943" y="25915622"/>
-          <a:ext cx="4180115" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>เล่นเกมส์เล็กๆ</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>500741</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>43545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>489855</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>20685</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="415" name="สี่เหลี่ยมผืนผ้า 414"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11125198" y="17003488"/>
-          <a:ext cx="1981200" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>402774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>587828</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>379914</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="416" name="สี่เหลี่ยมผืนผ้า 415"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11223171" y="20933231"/>
-          <a:ext cx="1981200" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>10888</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>141513</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>434342</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="417" name="สี่เหลี่ยมผืนผ้า 416"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10776856" y="23219231"/>
-          <a:ext cx="1981200" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>43544</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>445226</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="418" name="สี่เหลี่ยมผืนผ้า 417"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11342915" y="25908001"/>
-          <a:ext cx="1981200" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ค้นหาเรื่องเที่ยวญี่ปุ่น</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -25008,8 +25045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S60" sqref="S60"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table July 2018.xlsx
+++ b/Time Table July 2018.xlsx
@@ -25045,8 +25045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Time Table July 2018.xlsx
+++ b/Time Table July 2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
   <si>
     <t>Time</t>
   </si>
@@ -277,6 +277,12 @@
   <si>
     <t xml:space="preserve"> ใส่เพิ่มไปในบทสวดด้วย</t>
   </si>
+  <si>
+    <t>https://jenablue.com/category/mlp-kickstarter-rewards/</t>
+  </si>
+  <si>
+    <t>good role models</t>
+  </si>
 </sst>
 </file>
 
@@ -16021,24 +16027,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>7624</xdr:rowOff>
+      <xdr:colOff>391886</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>83823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>359230</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>388624</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="323" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6803572" y="20984395"/>
+      <xdr:colOff>587830</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>18508</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="325" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7032172" y="25523737"/>
           <a:ext cx="4180115" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16086,81 +16092,1221 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>555171</xdr:colOff>
+      <xdr:colOff>631371</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600892</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>440872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="326" name="สี่เหลี่ยมผืนผ้า 325"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="25461686"/>
+          <a:ext cx="633549" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>587829</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="327" name="สี่เหลี่ยมผืนผ้า 326"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12758057" y="9818914"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>130628</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="328" name="สี่เหลี่ยมผืนผ้า 327"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12747171" y="10308771"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>195942</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>642257</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="329" name="สี่เหลี่ยมผืนผ้า 328"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12812485" y="10744200"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>174170</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>620485</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="330" name="สี่เหลี่ยมผืนผ้า 329"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12790713" y="11190514"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>185055</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>435428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>631370</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>408214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="331" name="สี่เหลี่ยมผืนผ้า 330"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801598" y="11593285"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>478972</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="332" name="สี่เหลี่ยมผืนผ้า 331"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12649200" y="14358257"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>468086</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>92528</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="333" name="สี่เหลี่ยมผืนผ้า 332"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12638314" y="14848114"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>87085</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="334" name="สี่เหลี่ยมผืนผ้า 333"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12703628" y="15283543"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>65313</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>511628</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="335" name="สี่เหลี่ยมผืนผ้า 334"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12681856" y="15729857"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76198</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>522513</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="336" name="สี่เหลี่ยมผืนผ้า 335"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12692741" y="16132628"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>65316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>555173</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="337" name="สี่เหลี่ยมผืนผ้า 336"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12725401" y="18810516"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>108859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>544287</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="338" name="สี่เหลี่ยมผืนผ้า 337"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12714515" y="19300373"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>97973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>70759</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="339" name="สี่เหลี่ยมผืนผ้า 338"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12779829" y="19735802"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>97973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>587829</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>70759</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="340" name="สี่เหลี่ยมผืนผ้า 339"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12758057" y="20182116"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:rowOff>27216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="341" name="สี่เหลี่ยมผืนผ้า 340"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12768942" y="20584887"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>429987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="342" name="สี่เหลี่ยมผืนผ้า 341"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12627429" y="23219230"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>446315</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="343" name="สี่เหลี่ยมผืนผ้า 342"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12616543" y="23709087"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>43545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>511629</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>16330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="344" name="สี่เหลี่ยมผืนผ้า 343"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12681857" y="24144516"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>43542</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>16330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="345" name="สี่เหลี่ยมผืนผ้า 344"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12660085" y="24590830"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>54427</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>500742</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>419101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="346" name="สี่เหลี่ยมผืนผ้า 345"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12670970" y="24993601"/>
+          <a:ext cx="446315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ออกกำลัง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>524692</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="324" name="สี่เหลี่ยมผืนผ้า 323"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5867400" y="21031200"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>391886</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>83823</xdr:rowOff>
+      <xdr:colOff>642258</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>40280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>587830</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>18508</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="325" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7032172" y="25523737"/>
+      <xdr:colOff>174173</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>421280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="347" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6618515" y="20570737"/>
           <a:ext cx="4180115" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16208,24 +17354,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>631371</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>600892</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>440872</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="326" name="สี่เหลี่ยมผืนผ้า 325"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5943600" y="25461686"/>
+      <xdr:colOff>437606</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>429987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="348" name="สี่เหลี่ยมผืนผ้า 347"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5780314" y="20541344"/>
           <a:ext cx="633549" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16262,1167 +17408,27 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>587829</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="327" name="สี่เหลี่ยมผืนผ้า 326"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12758057" y="9818914"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>130628</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>43542</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>576943</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>16328</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="328" name="สี่เหลี่ยมผืนผ้า 327"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12747171" y="10308771"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>195942</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>642257</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>5443</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="329" name="สี่เหลี่ยมผืนผ้า 328"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12812485" y="10744200"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>174170</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>620485</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>5443</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="330" name="สี่เหลี่ยมผืนผ้า 329"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12790713" y="11190514"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>185055</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>435428</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>631370</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>408214</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="331" name="สี่เหลี่ยมผืนผ้า 330"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12801598" y="11593285"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>32657</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>478972</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>48986</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="332" name="สี่เหลี่ยมผืนผ้า 331"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12649200" y="14358257"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>468086</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>92528</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="333" name="สี่เหลี่ยมผืนผ้า 332"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12638314" y="14848114"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>87085</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="334" name="สี่เหลี่ยมผืนผ้า 333"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12703628" y="15283543"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>65313</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>511628</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="335" name="สี่เหลี่ยมผืนผ้า 334"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12681856" y="15729857"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76198</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>522513</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="336" name="สี่เหลี่ยมผืนผ้า 335"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12692741" y="16132628"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>108858</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>65316</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>555173</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38102</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="337" name="สี่เหลี่ยมผืนผ้า 336"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12725401" y="18810516"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>97972</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>108859</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>544287</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>81644</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="338" name="สี่เหลี่ยมผืนผ้า 337"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12714515" y="19300373"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>97973</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>70759</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="339" name="สี่เหลี่ยมผืนผ้า 338"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12779829" y="19735802"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>97973</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>587829</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>70759</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="340" name="สี่เหลี่ยมผืนผ้า 339"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12758057" y="20182116"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>27216</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="341" name="สี่เหลี่ยมผืนผ้า 340"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12768942" y="20584887"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>10887</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
+      <xdr:rowOff>29394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>185058</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>429987</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="342" name="สี่เหลี่ยมผืนผ้า 341"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12627429" y="23219230"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>446315</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>27216</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="343" name="สี่เหลี่ยมผืนผ้า 342"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12616543" y="23709087"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>65314</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>43545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>511629</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>16330</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="344" name="สี่เหลี่ยมผืนผ้า 343"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12681857" y="24144516"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>43542</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>43544</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>16330</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="345" name="สี่เหลี่ยมผืนผ้า 344"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12660085" y="24590830"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>54427</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>500742</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>419101</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="346" name="สี่เหลี่ยมผืนผ้า 345"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12670970" y="24993601"/>
-          <a:ext cx="446315" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ออกกำลัง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>642258</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>40280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>174173</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>421280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="347" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6618515" y="20570737"/>
+      <xdr:rowOff>410394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="349" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="23237737"/>
           <a:ext cx="4180115" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17470,128 +17476,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>468085</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>10887</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>437606</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>429987</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="348" name="สี่เหลี่ยมผืนผ้า 347"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5780314" y="20541344"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>653143</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>29394</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>185058</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>410394</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="349" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6629400" y="23237737"/>
-          <a:ext cx="4180115" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ไปเล่นเกมส์ที่มหาลัย</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
       <xdr:colOff>566056</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
@@ -17610,128 +17494,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5878285" y="23219229"/>
-          <a:ext cx="633549" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>62051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>239487</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>443051</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="351" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6683829" y="21485137"/>
-          <a:ext cx="4180115" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ไปเล่นเกมส์ที่มหาลัย</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>620485</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590006</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>16329</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="352" name="สี่เหลี่ยมผืนผ้า 351"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5932714" y="21466629"/>
           <a:ext cx="633549" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18103,15 +17865,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>97972</xdr:colOff>
+      <xdr:colOff>239485</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
+      <xdr:rowOff>10888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>11556</xdr:rowOff>
+      <xdr:colOff>522512</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>414328</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18120,7 +17882,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2754086" y="20138573"/>
+          <a:off x="2895599" y="20095031"/>
           <a:ext cx="947056" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21921,16 +21683,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>402771</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>293914</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21939,8 +21701,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13019314" y="24122742"/>
-          <a:ext cx="1534885" cy="1469571"/>
+          <a:off x="9383486" y="24100971"/>
+          <a:ext cx="1534885" cy="500744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22205,6 +21967,305 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2895600" y="16110858"/>
+          <a:ext cx="947056" cy="403440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>เอากลับมา</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10888</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>18508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>566058</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>399508</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="358" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9307288" y="20548965"/>
+          <a:ext cx="1883227" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>Gauntlet of Fire, Lesbian Horse</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>566056</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>435429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="360" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9307286" y="21031200"/>
+          <a:ext cx="1883227" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>erect dom</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>446316</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>674914</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>381001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="422" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17047030" y="23208344"/>
+          <a:ext cx="1883227" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>erect sub</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>576941</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="424" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16949057" y="21575486"/>
+          <a:ext cx="1883227" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>erect sub</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>21773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>631370</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>425213</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="359" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3004457" y="24122744"/>
           <a:ext cx="947056" cy="403440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -25045,8 +25106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U56" sqref="U56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26610,9 +26671,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -26630,7 +26689,14 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
     </row>
-    <row r="50" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>88</v>
+      </c>
+      <c r="K50" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="51" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>44</v>
